--- a/cargos.xlsx
+++ b/cargos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\PycharmProjects\Django_horarios_V6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78CFBB7-28E4-4C66-A21D-3320FCC85C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9845D0-E4C1-4638-A9DF-8BBB731658DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6602D61-97C0-4499-8F33-A12E244B4D86}"/>
   </bookViews>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EB25E-5F15-4935-8D9C-647B88A2BAF3}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -707,7 +707,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -715,7 +715,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,7 +723,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,7 +731,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -739,7 +739,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -747,7 +747,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -755,7 +755,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -771,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -787,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -795,7 +795,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,7 +803,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -827,7 +827,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -835,7 +835,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -843,7 +843,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -859,7 +859,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -867,7 +867,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -875,7 +875,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -883,7 +883,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -891,7 +891,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -907,7 +907,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -915,7 +915,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -931,7 +931,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -955,7 +955,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -963,7 +963,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -979,7 +979,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -995,7 +995,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1011,7 +1011,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/cargos.xlsx
+++ b/cargos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\PycharmProjects\Django_horarios_V6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9845D0-E4C1-4638-A9DF-8BBB731658DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C227AC-B179-4CA6-B612-082A6FF9D4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6602D61-97C0-4499-8F33-A12E244B4D86}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6602D61-97C0-4499-8F33-A12E244B4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Coordinador Contable</t>
+  </si>
+  <si>
+    <t>Prueba Sebastian</t>
   </si>
 </sst>
 </file>
@@ -555,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EB25E-5F15-4935-8D9C-647B88A2BAF3}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,6 +1017,14 @@
         <v>42</v>
       </c>
     </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cargos.xlsx
+++ b/cargos.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\PycharmProjects\Django_horarios_V6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C227AC-B179-4CA6-B612-082A6FF9D4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F0D230-C29D-4BDF-B4BE-471A7301D985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6602D61-97C0-4499-8F33-A12E244B4D86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6602D61-97C0-4499-8F33-A12E244B4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$54</definedName>
+  </definedNames>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -203,10 +206,10 @@
     <t>Supervisor De Linea</t>
   </si>
   <si>
-    <t>Coordinador Contable</t>
-  </si>
-  <si>
-    <t>Prueba Sebastian</t>
+    <t>Auxiliar de Nomina</t>
+  </si>
+  <si>
+    <t>Lider de Aeropuerto</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -558,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EB25E-5F15-4935-8D9C-647B88A2BAF3}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -726,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -734,7 +748,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -742,7 +756,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -750,7 +764,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -758,7 +772,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -766,7 +780,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -774,7 +788,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -782,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -790,7 +804,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -798,7 +812,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -926,7 +940,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -934,7 +948,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -942,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -950,7 +964,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -958,7 +972,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -966,7 +980,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -974,7 +988,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -982,7 +996,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -990,7 +1004,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -998,7 +1012,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1017,15 +1031,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>67</v>
-      </c>
-      <c r="B57" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:B54" xr:uid="{517EB25E-5F15-4935-8D9C-647B88A2BAF3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B56">
+      <sortCondition ref="B1:B54"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B3:B56">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cargos.xlsx
+++ b/cargos.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\PycharmProjects\Django_horarios_V6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F0D230-C29D-4BDF-B4BE-471A7301D985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9845D0-E4C1-4638-A9DF-8BBB731658DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6602D61-97C0-4499-8F33-A12E244B4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$54</definedName>
-  </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -206,10 +203,7 @@
     <t>Supervisor De Linea</t>
   </si>
   <si>
-    <t>Auxiliar de Nomina</t>
-  </si>
-  <si>
-    <t>Lider de Aeropuerto</t>
+    <t>Coordinador Contable</t>
   </si>
 </sst>
 </file>
@@ -251,18 +245,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -575,12 +558,12 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.88671875" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -740,7 +723,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -748,7 +731,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -756,7 +739,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -764,7 +747,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -772,7 +755,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -780,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -796,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +795,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -940,7 +923,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,7 +931,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -956,7 +939,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -964,7 +947,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -972,7 +955,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -980,7 +963,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -988,7 +971,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -996,7 +979,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1004,7 +987,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1012,7 +995,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1032,14 +1015,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B54" xr:uid="{517EB25E-5F15-4935-8D9C-647B88A2BAF3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B56">
-      <sortCondition ref="B1:B54"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B3:B56">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>